--- a/data/trans_orig/P17A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{492C491D-CF1D-4145-8CC0-07D78444CD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC2BBB5-0811-45B2-A002-5337455B21E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{99E023D0-F44B-4463-89D6-66C8DA71A17A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2E07978-E23C-4B16-8071-97CE588774CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -470,1087 +470,1105 @@
     <t>13,01%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
   </si>
   <si>
     <t>23,06%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>76,94%</t>
   </si>
   <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>26,97%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>85,33%</t>
   </si>
   <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>73,03%</t>
   </si>
   <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>23,95%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
   </si>
   <si>
     <t>23,22%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>76,05%</t>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
   </si>
   <si>
     <t>76,78%</t>
   </si>
   <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>15,49%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
   </si>
   <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
   </si>
   <si>
     <t>78,64%</t>
   </si>
   <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
   </si>
   <si>
     <t>27,83%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
   </si>
   <si>
     <t>72,17%</t>
   </si>
   <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
   </si>
   <si>
     <t>22,15%</t>
   </si>
   <si>
-    <t>20,73%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>75,75%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>79,27%</t>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0936C7F8-CF05-49E9-B046-ECBBE1B1D582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF43A762-E3B3-4CD0-9787-30CD87DBC86B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3181,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88748B41-590F-401B-969E-207C1D5CAC1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3191ABD9-0D54-4FA3-A809-F391D9B257D9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3636,7 +3654,7 @@
         <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>302</v>
@@ -3645,13 +3663,13 @@
         <v>322075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3684,13 @@
         <v>549597</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>483</v>
@@ -3681,13 +3699,13 @@
         <v>515284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>1011</v>
@@ -3696,13 +3714,13 @@
         <v>1064881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3788,13 @@
         <v>113735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>170</v>
@@ -3785,13 +3803,13 @@
         <v>193542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>270</v>
@@ -3800,13 +3818,13 @@
         <v>307277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3839,13 @@
         <v>500882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -3836,13 +3854,13 @@
         <v>421575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>816</v>
@@ -3851,13 +3869,13 @@
         <v>922457</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3943,13 @@
         <v>129270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -3940,13 +3958,13 @@
         <v>161701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>268</v>
@@ -3955,13 +3973,13 @@
         <v>290971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3994,13 @@
         <v>297120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>256</v>
@@ -3991,13 +4009,13 @@
         <v>286099</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -4006,13 +4024,13 @@
         <v>583219</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4098,13 @@
         <v>249544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>324</v>
@@ -4095,13 +4113,13 @@
         <v>344319</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>548</v>
@@ -4110,13 +4128,13 @@
         <v>593863</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4149,13 @@
         <v>307928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>368</v>
@@ -4146,13 +4164,13 @@
         <v>396643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>646</v>
@@ -4161,13 +4179,13 @@
         <v>704571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4253,13 @@
         <v>780140</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>1076</v>
@@ -4250,13 +4268,13 @@
         <v>1155571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>1793</v>
@@ -4265,13 +4283,13 @@
         <v>1935711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4304,13 @@
         <v>2632723</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>2212</v>
@@ -4301,13 +4319,13 @@
         <v>2391667</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>4692</v>
@@ -4316,13 +4334,13 @@
         <v>5024389</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5F0463-4166-4A3B-8783-FCE4245D141C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842A61B7-051B-4494-BED5-B4B68486786E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4417,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +4542,13 @@
         <v>68066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>96</v>
@@ -4539,13 +4557,13 @@
         <v>93337</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>162</v>
@@ -4554,13 +4572,13 @@
         <v>161402</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4593,13 @@
         <v>351397</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>308</v>
@@ -4590,13 +4608,13 @@
         <v>302418</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>635</v>
@@ -4605,13 +4623,13 @@
         <v>653816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4697,13 @@
         <v>91255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -4694,13 +4712,13 @@
         <v>158054</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>247</v>
@@ -4709,13 +4727,13 @@
         <v>249308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4748,13 @@
         <v>499241</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -4745,13 +4763,13 @@
         <v>405490</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -4760,13 +4778,13 @@
         <v>904732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4852,13 @@
         <v>146969</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>176</v>
@@ -4849,13 +4867,13 @@
         <v>173957</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>310</v>
@@ -4864,13 +4882,13 @@
         <v>320926</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4903,13 @@
         <v>522128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>489</v>
@@ -4900,13 +4918,13 @@
         <v>487429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>993</v>
@@ -4915,13 +4933,13 @@
         <v>1009557</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5007,13 @@
         <v>166339</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -5004,13 +5022,13 @@
         <v>181785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -5019,13 +5037,13 @@
         <v>348124</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5058,13 @@
         <v>479709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -5055,28 +5073,28 @@
         <v>467292</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>868</v>
       </c>
       <c r="N14" s="7">
-        <v>947001</v>
+        <v>947002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,7 +5136,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5144,13 +5162,13 @@
         <v>144092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -5159,13 +5177,13 @@
         <v>196252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
         <v>301</v>
@@ -5174,13 +5192,13 @@
         <v>340344</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5213,13 @@
         <v>333826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -5210,13 +5228,13 @@
         <v>300597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
         <v>556</v>
@@ -5225,13 +5243,13 @@
         <v>634423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5317,13 @@
         <v>238882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>304</v>
@@ -5314,13 +5332,13 @@
         <v>360934</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>557</v>
@@ -5329,13 +5347,13 @@
         <v>599816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5368,13 @@
         <v>352446</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -5365,13 +5383,13 @@
         <v>416997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>725</v>
@@ -5380,13 +5398,13 @@
         <v>769443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5472,13 @@
         <v>855602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>1077</v>
@@ -5469,13 +5487,13 @@
         <v>1164320</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>1893</v>
@@ -5484,13 +5502,13 @@
         <v>2019921</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5523,13 @@
         <v>2538748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>2261</v>
@@ -5520,13 +5538,13 @@
         <v>2380222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>4676</v>
@@ -5535,13 +5553,13 @@
         <v>4918971</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131CA521-336B-42B7-8064-2D941C566E2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6DF222-08E9-473D-B7FD-0F0E0C21C660}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5636,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5743,13 +5761,13 @@
         <v>27801</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5758,13 +5776,13 @@
         <v>61355</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -5773,13 +5791,13 @@
         <v>89156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5812,13 @@
         <v>349878</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -5809,13 +5827,13 @@
         <v>293602</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -5824,13 +5842,13 @@
         <v>643480</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5916,13 @@
         <v>77925</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -5913,13 +5931,13 @@
         <v>119803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>409</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -5928,13 +5946,13 @@
         <v>197729</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>415</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5967,13 @@
         <v>350471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H8" s="7">
         <v>357</v>
@@ -5964,13 +5982,13 @@
         <v>377470</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>417</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>608</v>
@@ -5979,13 +5997,13 @@
         <v>727940</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>423</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6071,13 @@
         <v>84211</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>184</v>
@@ -6068,13 +6086,13 @@
         <v>126212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M10" s="7">
         <v>262</v>
@@ -6083,13 +6101,13 @@
         <v>210422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6122,13 @@
         <v>473041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H11" s="7">
         <v>662</v>
@@ -6119,13 +6137,13 @@
         <v>457264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>436</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>1130</v>
@@ -6134,13 +6152,13 @@
         <v>930305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6226,13 @@
         <v>134427</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H13" s="7">
         <v>271</v>
@@ -6223,13 +6241,13 @@
         <v>183032</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M13" s="7">
         <v>398</v>
@@ -6241,10 +6259,10 @@
         <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6277,13 @@
         <v>589563</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H14" s="7">
         <v>869</v>
@@ -6274,13 +6292,13 @@
         <v>563778</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M14" s="7">
         <v>1407</v>
@@ -6292,10 +6310,10 @@
         <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>456</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6381,13 @@
         <v>146551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H16" s="7">
         <v>251</v>
@@ -6378,13 +6396,13 @@
         <v>151615</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M16" s="7">
         <v>405</v>
@@ -6393,13 +6411,13 @@
         <v>298166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6432,13 @@
         <v>453606</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H17" s="7">
         <v>750</v>
@@ -6429,13 +6447,13 @@
         <v>444959</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M17" s="7">
         <v>1259</v>
@@ -6444,13 +6462,13 @@
         <v>898564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,13 +6536,13 @@
         <v>198409</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>377</v>
       </c>
       <c r="H19" s="7">
         <v>508</v>
@@ -6533,13 +6551,13 @@
         <v>280638</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M19" s="7">
         <v>798</v>
@@ -6548,13 +6566,13 @@
         <v>479046</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>272</v>
+        <v>481</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6587,13 @@
         <v>497752</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>1197</v>
@@ -6584,13 +6602,13 @@
         <v>744605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>1933</v>
@@ -6599,13 +6617,13 @@
         <v>1242358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6691,13 @@
         <v>669323</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>1351</v>
@@ -6688,13 +6706,13 @@
         <v>922655</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
         <v>2063</v>
@@ -6703,13 +6721,13 @@
         <v>1591977</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6742,13 @@
         <v>2714311</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="H23" s="7">
         <v>4006</v>
@@ -6739,13 +6757,13 @@
         <v>2881677</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M23" s="7">
         <v>6668</v>
@@ -6754,13 +6772,13 @@
         <v>5595989</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>191</v>
+        <v>508</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P17A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC2BBB5-0811-45B2-A002-5337455B21E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3F70BB-6407-4638-8977-6FBF79C4B6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2E07978-E23C-4B16-8071-97CE588774CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A3DD972-D754-4087-A384-104ED656E555}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,166 +77,172 @@
     <t>11,37%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>85,19%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>76,53%</t>
+    <t>76,7%</t>
   </si>
   <si>
     <t>81,21%</t>
@@ -248,1254 +254,1272 @@
     <t>15,69%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>24,63%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
   </si>
   <si>
     <t>32,84%</t>
   </si>
   <si>
-    <t>22,12%</t>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>80,62%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
   </si>
   <si>
     <t>68,65%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
     <t>74,49%</t>
   </si>
   <si>
@@ -1523,9 +1547,6 @@
     <t>18,32%</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
     <t>24,25%</t>
   </si>
   <si>
@@ -1545,9 +1566,6 @@
   </si>
   <si>
     <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
   </si>
   <si>
     <t>81,68%</t>
@@ -1980,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF43A762-E3B3-4CD0-9787-30CD87DBC86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FF6EEC-01A3-4705-B2C0-08320D3C00F2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2414,13 +2432,13 @@
         <v>94612</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>178</v>
@@ -2429,13 +2447,13 @@
         <v>185634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>267</v>
@@ -2444,13 +2462,13 @@
         <v>280246</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2483,13 @@
         <v>544056</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>478</v>
@@ -2480,28 +2498,28 @@
         <v>502098</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1002</v>
       </c>
       <c r="N11" s="7">
-        <v>1046154</v>
+        <v>1046153</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,7 +2561,7 @@
         <v>1269</v>
       </c>
       <c r="N12" s="7">
-        <v>1326400</v>
+        <v>1326399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2557,7 +2575,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2569,13 +2587,13 @@
         <v>81432</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -2584,13 +2602,13 @@
         <v>147464</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>220</v>
@@ -2599,13 +2617,13 @@
         <v>228897</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2638,13 @@
         <v>437715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>359</v>
@@ -2635,13 +2653,13 @@
         <v>368178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>766</v>
@@ -2650,13 +2668,13 @@
         <v>805892</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,7 +2730,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2724,13 +2742,13 @@
         <v>126230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -2739,13 +2757,13 @@
         <v>150246</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>278</v>
@@ -2754,13 +2772,13 @@
         <v>276476</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2793,13 @@
         <v>260480</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>247</v>
@@ -2790,13 +2808,13 @@
         <v>253740</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>510</v>
@@ -2805,13 +2823,13 @@
         <v>514220</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2885,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2879,13 +2897,13 @@
         <v>228117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>322</v>
@@ -2894,13 +2912,13 @@
         <v>329500</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>562</v>
@@ -2909,13 +2927,13 @@
         <v>557617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2948,13 @@
         <v>273415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>339</v>
@@ -2945,13 +2963,13 @@
         <v>347342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>621</v>
@@ -2960,13 +2978,13 @@
         <v>620757</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3052,13 @@
         <v>659302</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1022</v>
@@ -3049,13 +3067,13 @@
         <v>1048370</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1683</v>
@@ -3064,13 +3082,13 @@
         <v>1707672</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3103,13 @@
         <v>2614572</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2273</v>
@@ -3100,13 +3118,13 @@
         <v>2328815</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>4823</v>
@@ -3115,13 +3133,13 @@
         <v>4943387</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,7 +3195,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3191ABD9-0D54-4FA3-A809-F391D9B257D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1022EC73-A4E8-49ED-BC4D-00691C2254F8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3216,7 +3234,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3323,13 +3341,13 @@
         <v>58944</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>95</v>
@@ -3338,13 +3356,13 @@
         <v>98230</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>153</v>
@@ -3353,13 +3371,13 @@
         <v>157174</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3392,13 @@
         <v>394218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>323</v>
@@ -3389,13 +3407,13 @@
         <v>327752</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>710</v>
@@ -3404,13 +3422,13 @@
         <v>721970</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3496,13 @@
         <v>100265</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -3493,13 +3511,13 @@
         <v>164086</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>252</v>
@@ -3508,13 +3526,13 @@
         <v>264351</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3547,13 @@
         <v>582978</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>414</v>
@@ -3544,13 +3562,13 @@
         <v>444315</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>981</v>
@@ -3559,13 +3577,13 @@
         <v>1027292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3651,13 @@
         <v>128382</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>182</v>
@@ -3648,13 +3666,13 @@
         <v>193693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>302</v>
@@ -3663,13 +3681,13 @@
         <v>322075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3702,13 @@
         <v>549597</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>483</v>
@@ -3699,13 +3717,13 @@
         <v>515284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1011</v>
@@ -3714,13 +3732,13 @@
         <v>1064881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3794,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3788,13 +3806,13 @@
         <v>113735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>170</v>
@@ -3803,13 +3821,13 @@
         <v>193542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>270</v>
@@ -3818,13 +3836,13 @@
         <v>307277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3857,13 @@
         <v>500882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -3854,13 +3872,13 @@
         <v>421575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>816</v>
@@ -3869,13 +3887,13 @@
         <v>922457</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,7 +3949,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3943,13 +3961,13 @@
         <v>129270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -3958,13 +3976,13 @@
         <v>161701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>268</v>
@@ -3973,13 +3991,13 @@
         <v>290971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4012,13 @@
         <v>297120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="H17" s="7">
         <v>256</v>
@@ -4009,13 +4027,13 @@
         <v>286099</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -4024,13 +4042,13 @@
         <v>583219</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,7 +4104,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4098,13 +4116,13 @@
         <v>249544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>324</v>
@@ -4113,13 +4131,13 @@
         <v>344319</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>548</v>
@@ -4128,13 +4146,13 @@
         <v>593863</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4167,13 @@
         <v>307928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>368</v>
@@ -4164,13 +4182,13 @@
         <v>396643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>646</v>
@@ -4179,13 +4197,13 @@
         <v>704571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4271,13 @@
         <v>780140</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>1076</v>
@@ -4268,13 +4286,13 @@
         <v>1155571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>1793</v>
@@ -4283,13 +4301,13 @@
         <v>1935711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4322,13 @@
         <v>2632723</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>2212</v>
@@ -4319,28 +4337,28 @@
         <v>2391667</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>4692</v>
       </c>
       <c r="N23" s="7">
-        <v>5024389</v>
+        <v>5024390</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,7 +4400,7 @@
         <v>6485</v>
       </c>
       <c r="N24" s="7">
-        <v>6960100</v>
+        <v>6960101</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4396,7 +4414,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4418,7 +4436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842A61B7-051B-4494-BED5-B4B68486786E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F129A347-9241-48FA-BFB3-A7FD4A09666A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4435,7 +4453,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4542,13 +4560,13 @@
         <v>68066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>96</v>
@@ -4557,13 +4575,13 @@
         <v>93337</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>162</v>
@@ -4572,13 +4590,13 @@
         <v>161402</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4611,13 @@
         <v>351397</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>308</v>
@@ -4608,13 +4626,13 @@
         <v>302418</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>635</v>
@@ -4623,13 +4641,13 @@
         <v>653816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4715,13 @@
         <v>91255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -4712,13 +4730,13 @@
         <v>158054</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>247</v>
@@ -4727,13 +4745,13 @@
         <v>249308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4766,13 @@
         <v>499241</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -4763,13 +4781,13 @@
         <v>405490</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -4778,13 +4796,13 @@
         <v>904732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4870,13 @@
         <v>146969</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>176</v>
@@ -4867,13 +4885,13 @@
         <v>173957</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>310</v>
@@ -4882,13 +4900,13 @@
         <v>320926</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4921,13 @@
         <v>522128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
         <v>489</v>
@@ -4918,13 +4936,13 @@
         <v>487429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>993</v>
@@ -4933,13 +4951,13 @@
         <v>1009557</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,7 +5013,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5007,13 +5025,13 @@
         <v>166339</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -5022,13 +5040,13 @@
         <v>181785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -5037,13 +5055,13 @@
         <v>348124</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5076,13 @@
         <v>479709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -5073,28 +5091,28 @@
         <v>467292</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>868</v>
       </c>
       <c r="N14" s="7">
-        <v>947002</v>
+        <v>947001</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,7 +5154,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5150,7 +5168,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5162,13 +5180,13 @@
         <v>144092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -5177,13 +5195,13 @@
         <v>196252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>301</v>
@@ -5192,13 +5210,13 @@
         <v>340344</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5231,13 @@
         <v>333826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -5228,13 +5246,13 @@
         <v>300597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>556</v>
@@ -5243,13 +5261,13 @@
         <v>634423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,7 +5323,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5317,13 +5335,13 @@
         <v>238882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>304</v>
@@ -5332,13 +5350,13 @@
         <v>360934</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>557</v>
@@ -5347,13 +5365,13 @@
         <v>599816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5386,13 @@
         <v>352446</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -5383,13 +5401,13 @@
         <v>416997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>725</v>
@@ -5398,13 +5416,13 @@
         <v>769443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5490,13 @@
         <v>855602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>1077</v>
@@ -5487,13 +5505,13 @@
         <v>1164320</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>1893</v>
@@ -5502,13 +5520,13 @@
         <v>2019921</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5541,13 @@
         <v>2538748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H23" s="7">
         <v>2261</v>
@@ -5538,13 +5556,13 @@
         <v>2380222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M23" s="7">
         <v>4676</v>
@@ -5553,13 +5571,13 @@
         <v>4918971</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,7 +5633,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6DF222-08E9-473D-B7FD-0F0E0C21C660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859C8B20-C7B3-47E1-8290-359EA77FAD9D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5761,13 +5779,13 @@
         <v>27801</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5776,13 +5794,13 @@
         <v>61355</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -5791,13 +5809,13 @@
         <v>89156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5830,13 @@
         <v>349878</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -5827,13 +5845,13 @@
         <v>293602</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -5842,13 +5860,13 @@
         <v>643480</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5934,13 @@
         <v>77925</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -5931,13 +5949,13 @@
         <v>119803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>295</v>
+        <v>415</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -5946,13 +5964,13 @@
         <v>197729</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5985,13 @@
         <v>350471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H8" s="7">
         <v>357</v>
@@ -5982,13 +6000,13 @@
         <v>377470</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M8" s="7">
         <v>608</v>
@@ -5997,13 +6015,13 @@
         <v>727940</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6089,13 @@
         <v>84211</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H10" s="7">
         <v>184</v>
@@ -6086,13 +6104,13 @@
         <v>126212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M10" s="7">
         <v>262</v>
@@ -6101,13 +6119,13 @@
         <v>210422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6140,13 @@
         <v>473041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H11" s="7">
         <v>662</v>
@@ -6137,13 +6155,13 @@
         <v>457264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>1130</v>
@@ -6152,13 +6170,13 @@
         <v>930305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,7 +6232,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6226,13 +6244,13 @@
         <v>134427</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H13" s="7">
         <v>271</v>
@@ -6241,13 +6259,13 @@
         <v>183032</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M13" s="7">
         <v>398</v>
@@ -6256,13 +6274,13 @@
         <v>317458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>452</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6295,13 @@
         <v>589563</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>869</v>
@@ -6292,13 +6310,13 @@
         <v>563778</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>1407</v>
@@ -6307,13 +6325,13 @@
         <v>1153342</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>461</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,7 +6387,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6381,13 +6399,13 @@
         <v>146551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H16" s="7">
         <v>251</v>
@@ -6396,13 +6414,13 @@
         <v>151615</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M16" s="7">
         <v>405</v>
@@ -6411,13 +6429,13 @@
         <v>298166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6450,13 @@
         <v>453606</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="H17" s="7">
         <v>750</v>
@@ -6447,13 +6465,13 @@
         <v>444959</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>1259</v>
@@ -6462,13 +6480,13 @@
         <v>898564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,7 +6542,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6536,13 +6554,13 @@
         <v>198409</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>377</v>
+        <v>484</v>
       </c>
       <c r="H19" s="7">
         <v>508</v>
@@ -6551,13 +6569,13 @@
         <v>280638</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="M19" s="7">
         <v>798</v>
@@ -6566,13 +6584,13 @@
         <v>479046</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6605,13 @@
         <v>497752</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="H20" s="7">
         <v>1197</v>
@@ -6602,13 +6620,13 @@
         <v>744605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="M20" s="7">
         <v>1933</v>
@@ -6617,13 +6635,13 @@
         <v>1242358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,13 +6709,13 @@
         <v>669323</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>1351</v>
@@ -6706,13 +6724,13 @@
         <v>922655</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="M22" s="7">
         <v>2063</v>
@@ -6721,13 +6739,13 @@
         <v>1591977</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6760,13 @@
         <v>2714311</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>502</v>
+        <v>263</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H23" s="7">
         <v>4006</v>
@@ -6757,13 +6775,13 @@
         <v>2881677</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="M23" s="7">
         <v>6668</v>
@@ -6772,13 +6790,13 @@
         <v>5595989</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,7 +6852,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3F70BB-6407-4638-8977-6FBF79C4B6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B28D7B-E2C8-46C2-AF52-D841C8DFFFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A3DD972-D754-4087-A384-104ED656E555}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{456F1E4B-E03E-4505-8854-CB845FAB6388}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>88,63%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>81,83%</t>
   </si>
   <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>85,32%</t>
   </si>
   <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1453 +140,1417 @@
     <t>9,92%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
   </si>
   <si>
     <t>24,07%</t>
   </si>
   <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>79,29%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
   </si>
   <si>
     <t>25,88%</t>
   </si>
   <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>74,12%</t>
   </si>
   <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
     <t>72,63%</t>
   </si>
   <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>18,32%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>24,25%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>22,15%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>20,73%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>81,68%</t>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
   </si>
   <si>
     <t>75,75%</t>
   </si>
   <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>79,27%</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FF6EEC-01A3-4705-B2C0-08320D3C00F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733E8B86-25C3-4707-9C9E-E63B2B8E1003}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2432,13 +2396,13 @@
         <v>94612</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>178</v>
@@ -2447,13 +2411,13 @@
         <v>185634</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>267</v>
@@ -2462,13 +2426,13 @@
         <v>280246</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2447,13 @@
         <v>544056</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>478</v>
@@ -2498,28 +2462,28 @@
         <v>502098</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1002</v>
       </c>
       <c r="N11" s="7">
-        <v>1046153</v>
+        <v>1046154</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,7 +2525,7 @@
         <v>1269</v>
       </c>
       <c r="N12" s="7">
-        <v>1326399</v>
+        <v>1326400</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2575,7 +2539,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2587,13 +2551,13 @@
         <v>81432</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>143</v>
@@ -2602,13 +2566,13 @@
         <v>147464</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>220</v>
@@ -2617,13 +2581,13 @@
         <v>228897</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2602,13 @@
         <v>437715</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>359</v>
@@ -2653,13 +2617,13 @@
         <v>368178</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>766</v>
@@ -2668,13 +2632,13 @@
         <v>805892</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,7 +2694,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2742,13 +2706,13 @@
         <v>126230</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -2757,13 +2721,13 @@
         <v>150246</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>278</v>
@@ -2772,13 +2736,13 @@
         <v>276476</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2757,13 @@
         <v>260480</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>247</v>
@@ -2808,13 +2772,13 @@
         <v>253740</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>510</v>
@@ -2823,13 +2787,13 @@
         <v>514220</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,7 +2849,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2897,13 +2861,13 @@
         <v>228117</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>322</v>
@@ -2912,13 +2876,13 @@
         <v>329500</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>562</v>
@@ -2927,13 +2891,13 @@
         <v>557617</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2912,13 @@
         <v>273415</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>339</v>
@@ -2963,13 +2927,13 @@
         <v>347342</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>621</v>
@@ -2978,13 +2942,13 @@
         <v>620757</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3016,13 @@
         <v>659302</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>1022</v>
@@ -3067,13 +3031,13 @@
         <v>1048370</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>1683</v>
@@ -3082,13 +3046,13 @@
         <v>1707672</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3067,13 @@
         <v>2614572</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="H23" s="7">
         <v>2273</v>
@@ -3118,13 +3082,13 @@
         <v>2328815</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>4823</v>
@@ -3133,13 +3097,13 @@
         <v>4943387</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,7 +3159,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1022EC73-A4E8-49ED-BC4D-00691C2254F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECCBE33-A09B-49AE-9776-039FCF002473}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3234,7 +3198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,13 +3305,13 @@
         <v>58944</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>95</v>
@@ -3356,13 +3320,13 @@
         <v>98230</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>153</v>
@@ -3371,13 +3335,13 @@
         <v>157174</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3356,13 @@
         <v>394218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>323</v>
@@ -3407,13 +3371,13 @@
         <v>327752</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>710</v>
@@ -3422,13 +3386,13 @@
         <v>721970</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3460,13 @@
         <v>100265</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -3511,13 +3475,13 @@
         <v>164086</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>252</v>
@@ -3526,13 +3490,13 @@
         <v>264351</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3511,13 @@
         <v>582978</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>414</v>
@@ -3562,13 +3526,13 @@
         <v>444315</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>981</v>
@@ -3577,13 +3541,13 @@
         <v>1027292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3615,13 @@
         <v>128382</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>182</v>
@@ -3666,13 +3630,13 @@
         <v>193693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>302</v>
@@ -3681,13 +3645,13 @@
         <v>322075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3666,13 @@
         <v>549597</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>483</v>
@@ -3717,13 +3681,13 @@
         <v>515284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>1011</v>
@@ -3732,13 +3696,13 @@
         <v>1064881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,7 +3758,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3806,13 +3770,13 @@
         <v>113735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>170</v>
@@ -3821,13 +3785,13 @@
         <v>193542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>270</v>
@@ -3836,13 +3800,13 @@
         <v>307277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3821,13 @@
         <v>500882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -3872,13 +3836,13 @@
         <v>421575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>816</v>
@@ -3887,13 +3851,13 @@
         <v>922457</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,7 +3913,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3961,13 +3925,13 @@
         <v>129270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -3976,13 +3940,13 @@
         <v>161701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>268</v>
@@ -3991,13 +3955,13 @@
         <v>290971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +3976,13 @@
         <v>297120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>256</v>
@@ -4027,13 +3991,13 @@
         <v>286099</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -4042,13 +4006,13 @@
         <v>583219</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,7 +4068,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4116,13 +4080,13 @@
         <v>249544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>324</v>
@@ -4131,13 +4095,13 @@
         <v>344319</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>548</v>
@@ -4146,13 +4110,13 @@
         <v>593863</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4131,13 @@
         <v>307928</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>368</v>
@@ -4182,13 +4146,13 @@
         <v>396643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>646</v>
@@ -4197,13 +4161,13 @@
         <v>704571</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4235,13 @@
         <v>780140</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>1076</v>
@@ -4286,13 +4250,13 @@
         <v>1155571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>1793</v>
@@ -4301,13 +4265,13 @@
         <v>1935711</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4286,13 @@
         <v>2632723</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>2212</v>
@@ -4337,28 +4301,28 @@
         <v>2391667</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>4692</v>
       </c>
       <c r="N23" s="7">
-        <v>5024390</v>
+        <v>5024389</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,7 +4364,7 @@
         <v>6485</v>
       </c>
       <c r="N24" s="7">
-        <v>6960101</v>
+        <v>6960100</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4414,7 +4378,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4436,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F129A347-9241-48FA-BFB3-A7FD4A09666A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8A372B-3EBE-4F91-83BC-20DD0181A7A5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4453,7 +4417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4560,13 +4524,13 @@
         <v>68066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>96</v>
@@ -4575,13 +4539,13 @@
         <v>93337</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>162</v>
@@ -4590,13 +4554,13 @@
         <v>161402</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4575,13 @@
         <v>351397</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>308</v>
@@ -4626,13 +4590,13 @@
         <v>302418</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>635</v>
@@ -4641,13 +4605,13 @@
         <v>653816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4679,13 @@
         <v>91255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -4730,13 +4694,13 @@
         <v>158054</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>247</v>
@@ -4745,13 +4709,13 @@
         <v>249308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4730,13 @@
         <v>499241</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -4781,13 +4745,13 @@
         <v>405490</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -4796,13 +4760,13 @@
         <v>904732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4834,13 @@
         <v>146969</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>176</v>
@@ -4885,13 +4849,13 @@
         <v>173957</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>310</v>
@@ -4900,13 +4864,13 @@
         <v>320926</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4885,13 @@
         <v>522128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H11" s="7">
         <v>489</v>
@@ -4936,13 +4900,13 @@
         <v>487429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
       <c r="M11" s="7">
         <v>993</v>
@@ -4951,13 +4915,13 @@
         <v>1009557</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,7 +4977,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5025,13 +4989,13 @@
         <v>166339</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -5040,13 +5004,13 @@
         <v>181785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -5055,13 +5019,13 @@
         <v>348124</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5040,13 @@
         <v>479709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -5091,13 +5055,13 @@
         <v>467292</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>868</v>
@@ -5106,13 +5070,13 @@
         <v>947001</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,7 +5132,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5180,13 +5144,13 @@
         <v>144092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -5195,13 +5159,13 @@
         <v>196252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>301</v>
@@ -5210,13 +5174,13 @@
         <v>340344</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5195,13 @@
         <v>333826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -5246,13 +5210,13 @@
         <v>300597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>556</v>
@@ -5261,13 +5225,13 @@
         <v>634423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,7 +5287,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5335,13 +5299,13 @@
         <v>238882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>304</v>
@@ -5350,13 +5314,13 @@
         <v>360934</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>557</v>
@@ -5365,13 +5329,13 @@
         <v>599816</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5350,13 @@
         <v>352446</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>351</v>
@@ -5401,13 +5365,13 @@
         <v>416997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>725</v>
@@ -5416,13 +5380,13 @@
         <v>769443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5454,13 @@
         <v>855602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>1077</v>
@@ -5505,13 +5469,13 @@
         <v>1164320</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>1893</v>
@@ -5520,13 +5484,13 @@
         <v>2019921</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5505,13 @@
         <v>2538748</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7">
         <v>2261</v>
@@ -5556,13 +5520,13 @@
         <v>2380222</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M23" s="7">
         <v>4676</v>
@@ -5571,13 +5535,13 @@
         <v>4918971</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,7 +5597,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5655,7 +5619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859C8B20-C7B3-47E1-8290-359EA77FAD9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C10BF1-36AA-4A8C-9007-5B8BAF28D851}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5672,7 +5636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5779,13 +5743,13 @@
         <v>27801</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5794,13 +5758,13 @@
         <v>61355</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -5809,13 +5773,13 @@
         <v>89156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5794,13 @@
         <v>349878</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
@@ -5845,13 +5809,13 @@
         <v>293602</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
@@ -5860,13 +5824,13 @@
         <v>643480</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5898,13 @@
         <v>77925</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
@@ -5949,13 +5913,13 @@
         <v>119803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -5964,13 +5928,13 @@
         <v>197729</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>418</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5949,13 @@
         <v>350471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="H8" s="7">
         <v>357</v>
@@ -6000,13 +5964,13 @@
         <v>377470</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="M8" s="7">
         <v>608</v>
@@ -6015,13 +5979,13 @@
         <v>727940</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>427</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6053,13 @@
         <v>84211</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H10" s="7">
         <v>184</v>
@@ -6104,13 +6068,13 @@
         <v>126212</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>426</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M10" s="7">
         <v>262</v>
@@ -6119,13 +6083,13 @@
         <v>210422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6104,13 @@
         <v>473041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H11" s="7">
         <v>662</v>
@@ -6155,13 +6119,13 @@
         <v>457264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>436</v>
       </c>
       <c r="M11" s="7">
         <v>1130</v>
@@ -6170,13 +6134,13 @@
         <v>930305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,7 +6196,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6244,13 +6208,13 @@
         <v>134427</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H13" s="7">
         <v>271</v>
@@ -6259,13 +6223,13 @@
         <v>183032</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M13" s="7">
         <v>398</v>
@@ -6274,13 +6238,13 @@
         <v>317458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>452</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>454</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6259,13 @@
         <v>589563</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="H14" s="7">
         <v>869</v>
@@ -6310,13 +6274,13 @@
         <v>563778</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="M14" s="7">
         <v>1407</v>
@@ -6325,13 +6289,13 @@
         <v>1153342</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>461</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>462</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6351,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6363,13 @@
         <v>146551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H16" s="7">
         <v>251</v>
@@ -6414,13 +6378,13 @@
         <v>151615</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="M16" s="7">
         <v>405</v>
@@ -6429,13 +6393,13 @@
         <v>298166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6414,13 @@
         <v>453606</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="H17" s="7">
         <v>750</v>
@@ -6465,13 +6429,13 @@
         <v>444959</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="M17" s="7">
         <v>1259</v>
@@ -6480,13 +6444,13 @@
         <v>898564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,7 +6506,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6554,13 +6518,13 @@
         <v>198409</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
         <v>508</v>
@@ -6569,13 +6533,13 @@
         <v>280638</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
         <v>798</v>
@@ -6584,13 +6548,13 @@
         <v>479046</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>488</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6569,13 @@
         <v>497752</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="H20" s="7">
         <v>1197</v>
@@ -6620,13 +6584,13 @@
         <v>744605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="M20" s="7">
         <v>1933</v>
@@ -6635,13 +6599,13 @@
         <v>1242358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6673,13 @@
         <v>669323</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>253</v>
+        <v>490</v>
       </c>
       <c r="H22" s="7">
         <v>1351</v>
@@ -6724,13 +6688,13 @@
         <v>922655</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>2063</v>
@@ -6739,13 +6703,13 @@
         <v>1591977</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>507</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6724,13 @@
         <v>2714311</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>263</v>
+        <v>497</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>4006</v>
@@ -6775,13 +6739,13 @@
         <v>2881677</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="M23" s="7">
         <v>6668</v>
@@ -6790,13 +6754,13 @@
         <v>5595989</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>514</v>
+        <v>191</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,7 +6816,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B28D7B-E2C8-46C2-AF52-D841C8DFFFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82E3837E-4B3E-4A3A-9847-70AFCF169A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{456F1E4B-E03E-4505-8854-CB845FAB6388}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B84E5953-D63D-49A7-AD79-FAC02E3B4CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="573">
   <si>
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>9,92%</t>
@@ -191,7 +191,7 @@
     <t>85,51%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -242,7 +242,7 @@
     <t>81,21%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -299,7 +299,7 @@
     <t>80,62%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>32,64%</t>
@@ -356,796 +356,955 @@
     <t>68,26%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
   </si>
   <si>
     <t>49,65%</t>
   </si>
   <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2012 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
   </si>
   <si>
     <t>25,21%</t>
@@ -1205,352 +1364,400 @@
     <t>Población que ha consultado con algún médico (público o privado) por agún problema, molestia o enfermedad suya en las últimas dos semanas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>75,49%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
   </si>
 </sst>
 </file>
@@ -1962,8 +2169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733E8B86-25C3-4707-9C9E-E63B2B8E1003}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CB51A7-CB2F-432C-8F43-83F6B32D3DF6}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2474,7 +2681,7 @@
         <v>1002</v>
       </c>
       <c r="N11" s="7">
-        <v>1046154</v>
+        <v>1046153</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -2525,7 +2732,7 @@
         <v>1269</v>
       </c>
       <c r="N12" s="7">
-        <v>1326400</v>
+        <v>1326399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2855,10 +3062,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7">
-        <v>228117</v>
+        <v>134922</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2870,10 +3077,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>322</v>
+        <v>175</v>
       </c>
       <c r="I19" s="7">
-        <v>329500</v>
+        <v>161337</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2885,10 +3092,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>562</v>
+        <v>315</v>
       </c>
       <c r="N19" s="7">
-        <v>557617</v>
+        <v>296259</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2906,10 +3113,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>282</v>
+        <v>162</v>
       </c>
       <c r="D20" s="7">
-        <v>273415</v>
+        <v>156727</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2921,10 +3128,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>339</v>
+        <v>196</v>
       </c>
       <c r="I20" s="7">
-        <v>347342</v>
+        <v>181597</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2936,10 +3143,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>621</v>
+        <v>358</v>
       </c>
       <c r="N20" s="7">
-        <v>620757</v>
+        <v>338324</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2957,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>522</v>
+        <v>302</v>
       </c>
       <c r="D21" s="7">
-        <v>501532</v>
+        <v>291649</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2972,10 +3179,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2987,10 +3194,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1183</v>
+        <v>673</v>
       </c>
       <c r="N21" s="7">
-        <v>1178374</v>
+        <v>634583</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3004,55 +3211,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>661</v>
+        <v>100</v>
       </c>
       <c r="D22" s="7">
-        <v>659302</v>
+        <v>93195</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="7">
+        <v>147</v>
+      </c>
+      <c r="I22" s="7">
+        <v>168163</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="7">
-        <v>1022</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1048370</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
-        <v>1683</v>
+        <v>247</v>
       </c>
       <c r="N22" s="7">
-        <v>1707672</v>
+        <v>261358</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,49 +3268,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2550</v>
+        <v>120</v>
       </c>
       <c r="D23" s="7">
-        <v>2614572</v>
+        <v>116688</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="7">
+        <v>143</v>
+      </c>
+      <c r="I23" s="7">
+        <v>165745</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2273</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2328815</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="M23" s="7">
-        <v>4823</v>
+        <v>263</v>
       </c>
       <c r="N23" s="7">
-        <v>4943387</v>
+        <v>282433</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,63 +3319,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>661</v>
+      </c>
+      <c r="D25" s="7">
+        <v>659302</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1022</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1048370</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1683</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1707672</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2550</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2614572</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2273</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2328815</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4823</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4943387</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3211</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3273874</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3377185</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6506</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6651059</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3181,8 +3544,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECCBE33-A09B-49AE-9776-039FCF002473}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F528ED-8EF4-4163-9E6B-92D3D7E99E7F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3198,7 +3561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3305,13 +3668,13 @@
         <v>58944</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>95</v>
@@ -3320,13 +3683,13 @@
         <v>98230</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>153</v>
@@ -3335,13 +3698,13 @@
         <v>157174</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3719,13 @@
         <v>394218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>323</v>
@@ -3371,13 +3734,13 @@
         <v>327752</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>710</v>
@@ -3386,13 +3749,13 @@
         <v>721970</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3823,13 @@
         <v>100265</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>155</v>
@@ -3475,13 +3838,13 @@
         <v>164086</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>252</v>
@@ -3490,13 +3853,13 @@
         <v>264351</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3874,13 @@
         <v>582978</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>414</v>
@@ -3526,13 +3889,13 @@
         <v>444315</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>981</v>
@@ -3541,13 +3904,13 @@
         <v>1027292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3978,13 @@
         <v>128382</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>182</v>
@@ -3630,10 +3993,10 @@
         <v>193693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>55</v>
@@ -3645,13 +4008,13 @@
         <v>322075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +4029,13 @@
         <v>549597</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>483</v>
@@ -3681,13 +4044,13 @@
         <v>515284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>1011</v>
@@ -3696,13 +4059,13 @@
         <v>1064881</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +4133,13 @@
         <v>113735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>170</v>
@@ -3785,13 +4148,13 @@
         <v>193542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>270</v>
@@ -3800,13 +4163,13 @@
         <v>307277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +4184,13 @@
         <v>500882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -3836,13 +4199,13 @@
         <v>421575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>816</v>
@@ -3851,13 +4214,13 @@
         <v>922457</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +4288,13 @@
         <v>129270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -3940,13 +4303,13 @@
         <v>161701</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>268</v>
@@ -3955,13 +4318,13 @@
         <v>290971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +4339,13 @@
         <v>297120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>256</v>
@@ -3991,13 +4354,13 @@
         <v>286099</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>528</v>
@@ -4006,13 +4369,13 @@
         <v>583219</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,49 +4437,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="D19" s="7">
-        <v>249544</v>
+        <v>135265</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
-        <v>324</v>
+        <v>153</v>
       </c>
       <c r="I19" s="7">
-        <v>344319</v>
+        <v>153822</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
-        <v>548</v>
+        <v>276</v>
       </c>
       <c r="N19" s="7">
-        <v>593863</v>
+        <v>289087</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,49 +4488,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>278</v>
+        <v>158</v>
       </c>
       <c r="D20" s="7">
-        <v>307928</v>
+        <v>173511</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="I20" s="7">
-        <v>396643</v>
+        <v>199165</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
-        <v>646</v>
+        <v>348</v>
       </c>
       <c r="N20" s="7">
-        <v>704571</v>
+        <v>372676</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,10 +4539,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>557472</v>
+        <v>308776</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4191,10 +4554,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>692</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>740962</v>
+        <v>352987</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4206,10 +4569,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1194</v>
+        <v>624</v>
       </c>
       <c r="N21" s="7">
-        <v>1298434</v>
+        <v>661763</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4223,55 +4586,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>717</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>780140</v>
+        <v>114280</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
-        <v>1076</v>
+        <v>171</v>
       </c>
       <c r="I22" s="7">
-        <v>1155571</v>
+        <v>190496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
-        <v>1793</v>
+        <v>272</v>
       </c>
       <c r="N22" s="7">
-        <v>1935711</v>
+        <v>304776</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,49 +4643,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2480</v>
+        <v>120</v>
       </c>
       <c r="D23" s="7">
-        <v>2632723</v>
+        <v>134416</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
-        <v>2212</v>
+        <v>178</v>
       </c>
       <c r="I23" s="7">
-        <v>2391667</v>
+        <v>197478</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
-        <v>4692</v>
+        <v>298</v>
       </c>
       <c r="N23" s="7">
-        <v>5024389</v>
+        <v>331895</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,63 +4694,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248696</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387974</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>570</v>
+      </c>
+      <c r="N24" s="7">
+        <v>636671</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>717</v>
+      </c>
+      <c r="D25" s="7">
+        <v>780140</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1076</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1155571</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1793</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1935711</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2480</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2632723</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2212</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2391667</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4692</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5024390</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3197</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3412863</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3288</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3547238</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6485</v>
       </c>
-      <c r="N24" s="7">
-        <v>6960100</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6960101</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4400,8 +4919,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8A372B-3EBE-4F91-83BC-20DD0181A7A5}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4811BA-29F1-4B3A-B6FB-7CA6AEA38215}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4417,7 +4936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +5043,13 @@
         <v>68066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>96</v>
@@ -4539,13 +5058,13 @@
         <v>93337</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>162</v>
@@ -4554,13 +5073,13 @@
         <v>161402</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +5094,13 @@
         <v>351397</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>308</v>
@@ -4590,13 +5109,13 @@
         <v>302418</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>635</v>
@@ -4605,13 +5124,13 @@
         <v>653816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +5198,13 @@
         <v>91255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>161</v>
@@ -4694,13 +5213,13 @@
         <v>158054</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>247</v>
@@ -4709,13 +5228,13 @@
         <v>249308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +5249,13 @@
         <v>499241</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>418</v>
@@ -4745,13 +5264,13 @@
         <v>405490</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>899</v>
@@ -4760,13 +5279,13 @@
         <v>904732</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +5353,13 @@
         <v>146969</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>176</v>
@@ -4849,13 +5368,13 @@
         <v>173957</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>310</v>
@@ -4864,13 +5383,13 @@
         <v>320926</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +5404,13 @@
         <v>522128</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>489</v>
@@ -4900,13 +5419,13 @@
         <v>487429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="M11" s="7">
         <v>993</v>
@@ -4915,13 +5434,13 @@
         <v>1009557</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5508,13 @@
         <v>166339</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -5004,13 +5523,13 @@
         <v>181785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -5019,13 +5538,13 @@
         <v>348124</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5559,13 @@
         <v>479709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -5055,13 +5574,13 @@
         <v>467292</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>868</v>
@@ -5070,13 +5589,13 @@
         <v>947001</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5663,13 @@
         <v>144092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
         <v>171</v>
@@ -5159,13 +5678,13 @@
         <v>196252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
         <v>301</v>
@@ -5174,13 +5693,13 @@
         <v>340344</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5714,13 @@
         <v>333826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>262</v>
@@ -5210,13 +5729,13 @@
         <v>300597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>556</v>
@@ -5225,13 +5744,13 @@
         <v>634423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,49 +5812,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="D19" s="7">
-        <v>238882</v>
+        <v>131156</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
-        <v>304</v>
+        <v>173</v>
       </c>
       <c r="I19" s="7">
-        <v>360934</v>
+        <v>185695</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="M19" s="7">
-        <v>557</v>
+        <v>301</v>
       </c>
       <c r="N19" s="7">
-        <v>599816</v>
+        <v>316851</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,49 +5863,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>374</v>
+        <v>197</v>
       </c>
       <c r="D20" s="7">
-        <v>352446</v>
+        <v>203174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7">
-        <v>351</v>
+        <v>181</v>
       </c>
       <c r="I20" s="7">
-        <v>416997</v>
+        <v>192067</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
-        <v>725</v>
+        <v>378</v>
       </c>
       <c r="N20" s="7">
-        <v>769443</v>
+        <v>395241</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,10 +5914,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5410,10 +5929,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5425,10 +5944,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5442,55 +5961,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>816</v>
+        <v>125</v>
       </c>
       <c r="D22" s="7">
-        <v>855602</v>
+        <v>107726</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
-        <v>1077</v>
+        <v>131</v>
       </c>
       <c r="I22" s="7">
-        <v>1164320</v>
+        <v>175239</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
-        <v>1893</v>
+        <v>256</v>
       </c>
       <c r="N22" s="7">
-        <v>2019921</v>
+        <v>282965</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,49 +6018,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2415</v>
+        <v>177</v>
       </c>
       <c r="D23" s="7">
-        <v>2538748</v>
+        <v>149272</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="H23" s="7">
-        <v>2261</v>
+        <v>170</v>
       </c>
       <c r="I23" s="7">
-        <v>2380222</v>
+        <v>224930</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
-        <v>4676</v>
+        <v>347</v>
       </c>
       <c r="N23" s="7">
-        <v>4918971</v>
+        <v>374202</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,63 +6069,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>816</v>
+      </c>
+      <c r="D25" s="7">
+        <v>855602</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1077</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1164320</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1893</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2019921</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2415</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2538748</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2261</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2380222</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4676</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4918971</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5619,8 +6294,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C10BF1-36AA-4A8C-9007-5B8BAF28D851}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8222E5-4B31-4941-9355-05CE66992A69}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5636,7 +6311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5740,46 +6415,46 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>27801</v>
+        <v>31210</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>61355</v>
+        <v>55060</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>89156</v>
+        <v>86270</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,46 +6466,46 @@
         <v>160</v>
       </c>
       <c r="D5" s="7">
-        <v>349878</v>
+        <v>368777</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="H5" s="7">
         <v>171</v>
       </c>
       <c r="I5" s="7">
-        <v>293602</v>
+        <v>258140</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="M5" s="7">
         <v>331</v>
       </c>
       <c r="N5" s="7">
-        <v>643480</v>
+        <v>626917</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +6517,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5857,7 +6532,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5872,7 +6547,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5895,46 +6570,46 @@
         <v>51</v>
       </c>
       <c r="D7" s="7">
-        <v>77925</v>
+        <v>78644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
       </c>
       <c r="I7" s="7">
-        <v>119803</v>
+        <v>166114</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>197729</v>
+        <v>244758</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,46 +6621,46 @@
         <v>251</v>
       </c>
       <c r="D8" s="7">
-        <v>350471</v>
+        <v>344903</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="H8" s="7">
         <v>357</v>
       </c>
       <c r="I8" s="7">
-        <v>377470</v>
+        <v>344107</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="M8" s="7">
         <v>608</v>
       </c>
       <c r="N8" s="7">
-        <v>727940</v>
+        <v>689010</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,7 +6672,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6012,7 +6687,7 @@
         <v>458</v>
       </c>
       <c r="I9" s="7">
-        <v>497273</v>
+        <v>510221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6027,7 +6702,7 @@
         <v>760</v>
       </c>
       <c r="N9" s="7">
-        <v>925669</v>
+        <v>933768</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6050,46 +6725,46 @@
         <v>78</v>
       </c>
       <c r="D10" s="7">
-        <v>84211</v>
+        <v>80701</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>184</v>
       </c>
       <c r="I10" s="7">
-        <v>126212</v>
+        <v>118499</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>262</v>
       </c>
       <c r="N10" s="7">
-        <v>210422</v>
+        <v>199199</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,46 +6776,46 @@
         <v>468</v>
       </c>
       <c r="D11" s="7">
-        <v>473041</v>
+        <v>455637</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="H11" s="7">
         <v>662</v>
       </c>
       <c r="I11" s="7">
-        <v>457264</v>
+        <v>423969</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="M11" s="7">
         <v>1130</v>
       </c>
       <c r="N11" s="7">
-        <v>930305</v>
+        <v>879607</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,7 +6827,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6167,7 +6842,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6182,7 +6857,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6205,46 +6880,46 @@
         <v>127</v>
       </c>
       <c r="D13" s="7">
-        <v>134427</v>
+        <v>127008</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>271</v>
       </c>
       <c r="I13" s="7">
-        <v>183032</v>
+        <v>167846</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>304</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="M13" s="7">
         <v>398</v>
       </c>
       <c r="N13" s="7">
-        <v>317458</v>
+        <v>294854</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,46 +6931,46 @@
         <v>538</v>
       </c>
       <c r="D14" s="7">
-        <v>589563</v>
+        <v>760778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>869</v>
       </c>
       <c r="I14" s="7">
-        <v>563778</v>
+        <v>544623</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
         <v>1407</v>
       </c>
       <c r="N14" s="7">
-        <v>1153342</v>
+        <v>1305401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>507</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,7 +6982,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6322,7 +6997,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746810</v>
+        <v>712469</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6337,7 +7012,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470800</v>
+        <v>1600255</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6360,46 +7035,46 @@
         <v>154</v>
       </c>
       <c r="D16" s="7">
-        <v>146551</v>
+        <v>138635</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="H16" s="7">
         <v>251</v>
       </c>
       <c r="I16" s="7">
-        <v>151615</v>
+        <v>138412</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>405</v>
       </c>
       <c r="N16" s="7">
-        <v>298166</v>
+        <v>277047</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>460</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,46 +7086,46 @@
         <v>509</v>
       </c>
       <c r="D17" s="7">
-        <v>453606</v>
+        <v>422599</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>750</v>
       </c>
       <c r="I17" s="7">
-        <v>444959</v>
+        <v>409052</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>1259</v>
       </c>
       <c r="N17" s="7">
-        <v>898564</v>
+        <v>831651</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,7 +7137,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6477,7 +7152,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>596574</v>
+        <v>547464</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6492,7 +7167,7 @@
         <v>1664</v>
       </c>
       <c r="N18" s="7">
-        <v>1196730</v>
+        <v>1108698</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6512,49 +7187,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>290</v>
+        <v>159</v>
       </c>
       <c r="D19" s="7">
-        <v>198409</v>
+        <v>104761</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
-        <v>508</v>
+        <v>248</v>
       </c>
       <c r="I19" s="7">
-        <v>280638</v>
+        <v>122397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>526</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>527</v>
       </c>
       <c r="M19" s="7">
-        <v>798</v>
+        <v>407</v>
       </c>
       <c r="N19" s="7">
-        <v>479046</v>
+        <v>227159</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>272</v>
+        <v>528</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,49 +7238,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>736</v>
+        <v>410</v>
       </c>
       <c r="D20" s="7">
-        <v>497752</v>
+        <v>262783</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>532</v>
       </c>
       <c r="H20" s="7">
-        <v>1197</v>
+        <v>577</v>
       </c>
       <c r="I20" s="7">
-        <v>744605</v>
+        <v>484982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>534</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>535</v>
       </c>
       <c r="M20" s="7">
-        <v>1933</v>
+        <v>987</v>
       </c>
       <c r="N20" s="7">
-        <v>1242358</v>
+        <v>747765</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>536</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,10 +7289,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1026</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696161</v>
+        <v>367544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6629,10 +7304,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1025243</v>
+        <v>607379</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6644,10 +7319,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2731</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1721404</v>
+        <v>974924</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6661,55 +7336,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>712</v>
+        <v>131</v>
       </c>
       <c r="D22" s="7">
-        <v>669323</v>
+        <v>80396</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="H22" s="7">
-        <v>1351</v>
+        <v>260</v>
       </c>
       <c r="I22" s="7">
-        <v>922655</v>
+        <v>128234</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="M22" s="7">
-        <v>2063</v>
+        <v>391</v>
       </c>
       <c r="N22" s="7">
-        <v>1591977</v>
+        <v>208630</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>546</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,49 +7393,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2662</v>
+        <v>326</v>
       </c>
       <c r="D23" s="7">
-        <v>2714311</v>
+        <v>201546</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>548</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>549</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>550</v>
       </c>
       <c r="H23" s="7">
-        <v>4006</v>
+        <v>620</v>
       </c>
       <c r="I23" s="7">
-        <v>2881677</v>
+        <v>297198</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>551</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>552</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>501</v>
+        <v>553</v>
       </c>
       <c r="M23" s="7">
-        <v>6668</v>
+        <v>946</v>
       </c>
       <c r="N23" s="7">
-        <v>5595989</v>
+        <v>498744</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>502</v>
+        <v>554</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>191</v>
+        <v>555</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,63 +7444,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281942</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425432</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707374</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>712</v>
+      </c>
+      <c r="D25" s="7">
+        <v>641355</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1351</v>
+      </c>
+      <c r="I25" s="7">
+        <v>896562</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2063</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1537917</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2662</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2817024</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4006</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2762071</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6668</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5579095</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383634</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458379</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5357</v>
       </c>
-      <c r="I24" s="7">
-        <v>3804332</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658633</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8731</v>
       </c>
-      <c r="N24" s="7">
-        <v>7187966</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7117012</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
